--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/210923.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/210923.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="3" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="3" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1478,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="3" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="3" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>0</v>
@@ -1998,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="3" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -2164,37 +2164,37 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="3" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>0</v>
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
@@ -2297,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="2" t="n">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3" t="inlineStr">
         <is>
@@ -2349,10 +2349,10 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2379,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2424,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="3" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD16" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="2" t="n">
         <v>0</v>
@@ -2581,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="3" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2663,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2708,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="3" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>0</v>
@@ -2778,13 +2778,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -2796,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2" t="n">
         <v>0</v>
@@ -2817,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="2" t="n">
         <v>0</v>
@@ -2841,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="3" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2899,19 +2899,19 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2923,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2944,16 +2944,16 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="3" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="AB20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="2" t="n">
         <v>0</v>
@@ -3101,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="3" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3183,19 +3183,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -3204,16 +3204,16 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>0</v>
@@ -3298,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2" t="n">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2" t="n">
         <v>0</v>
@@ -3361,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="3" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3425,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3443,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -3464,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
@@ -3488,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="3" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
@@ -3558,13 +3558,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
@@ -3576,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2" t="n">
         <v>0</v>
@@ -3621,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="3" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3724,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>1</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="3" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="2" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2" t="n">
         <v>0</v>
@@ -3857,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="3" t="inlineStr">
         <is>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -3984,37 +3984,37 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="3" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" s="2" t="n">
         <v>0</v>
@@ -4078,13 +4078,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -4096,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2" t="n">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="AB28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="n">
         <v>0</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="3" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -4205,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4223,10 +4223,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -4244,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>1</v>
@@ -4268,13 +4268,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="3" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" s="2" t="n">
         <v>0</v>
@@ -4338,13 +4338,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -4356,10 +4356,10 @@
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2" t="n">
         <v>0</v>
@@ -4377,13 +4377,13 @@
         <v>0</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
@@ -4401,13 +4401,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="3" t="inlineStr">
         <is>
@@ -4432,10 +4432,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -4465,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4483,10 +4483,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -4504,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -4528,13 +4528,13 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="3" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J32" s="2" t="n">
         <v>0</v>
@@ -4598,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>0</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2" t="n">
         <v>0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
@@ -4661,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="3" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4743,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -4764,19 +4764,19 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="3" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" s="2" t="n">
         <v>0</v>
@@ -4858,13 +4858,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
@@ -4876,10 +4876,10 @@
         <v>0</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2" t="n">
         <v>0</v>
@@ -4897,13 +4897,13 @@
         <v>0</v>
       </c>
       <c r="AB34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
@@ -4921,13 +4921,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="3" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -4985,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5003,10 +5003,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -5024,16 +5024,16 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -5045,16 +5045,16 @@
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="3" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J36" s="2" t="n">
         <v>0</v>
@@ -5118,13 +5118,13 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
@@ -5136,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2" t="n">
         <v>0</v>
@@ -5157,13 +5157,13 @@
         <v>0</v>
       </c>
       <c r="AB36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" t="n">
         <v>0</v>
@@ -5181,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="3" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -5245,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5263,10 +5263,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -5284,13 +5284,13 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" t="n">
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -5302,19 +5302,19 @@
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="3" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -5354,13 +5354,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J38" s="2" t="n">
         <v>0</v>
@@ -5378,13 +5378,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -5396,10 +5396,10 @@
         <v>0</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="2" t="n">
         <v>0</v>
@@ -5417,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="AB38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2" t="n">
         <v>0</v>
@@ -5441,13 +5441,13 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="3" t="inlineStr">
         <is>
@@ -5487,16 +5487,16 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>1</v>
@@ -5511,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
@@ -5529,10 +5529,10 @@
         <v>0</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="2" t="n">
         <v>0</v>
@@ -5550,13 +5550,13 @@
         <v>0</v>
       </c>
       <c r="AB39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="2" t="n">
         <v>0</v>
@@ -5574,13 +5574,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="3" t="inlineStr">
         <is>
@@ -5614,16 +5614,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -5638,13 +5638,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5656,10 +5656,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -5680,10 +5680,10 @@
         <v>1</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
@@ -5698,16 +5698,16 @@
         <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
         <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="3" t="inlineStr">
         <is>
@@ -5747,16 +5747,16 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>1</v>
@@ -5771,13 +5771,13 @@
         <v>0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
@@ -5789,13 +5789,13 @@
         <v>0</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="2" t="n">
         <v>0</v>
@@ -5807,16 +5807,16 @@
         <v>1</v>
       </c>
       <c r="AA41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="2" t="n">
         <v>0</v>
@@ -5834,13 +5834,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="3" t="inlineStr">
         <is>
@@ -5874,16 +5874,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -5898,13 +5898,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -5916,13 +5916,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -5934,16 +5934,16 @@
         <v>1</v>
       </c>
       <c r="AA42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
         <v>1</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
         <v>0</v>
@@ -5958,16 +5958,16 @@
         <v>0</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
         <v>0</v>
       </c>
       <c r="AL42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="3" t="inlineStr">
         <is>
@@ -6007,16 +6007,16 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1</v>
@@ -6031,13 +6031,13 @@
         <v>0</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
@@ -6049,13 +6049,13 @@
         <v>0</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="2" t="n">
         <v>0</v>
@@ -6067,16 +6067,16 @@
         <v>1</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2" t="n">
         <v>0</v>
@@ -6094,13 +6094,13 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="3" t="inlineStr">
         <is>
@@ -6134,16 +6134,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -6158,13 +6158,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -6194,16 +6194,16 @@
         <v>1</v>
       </c>
       <c r="AA44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="n">
         <v>1</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
         <v>0</v>
@@ -6218,16 +6218,16 @@
         <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
         <v>1</v>
       </c>
       <c r="AL44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="3" t="inlineStr">
         <is>
@@ -6261,22 +6261,22 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>1</v>
@@ -6291,13 +6291,13 @@
         <v>0</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
@@ -6309,13 +6309,13 @@
         <v>0</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="2" t="n">
         <v>0</v>
@@ -6327,16 +6327,16 @@
         <v>1</v>
       </c>
       <c r="AA45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="2" t="n">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="3" t="inlineStr">
         <is>
@@ -6388,22 +6388,22 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -6418,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -6454,16 +6454,16 @@
         <v>1</v>
       </c>
       <c r="AA46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
         <v>1</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
@@ -6478,16 +6478,16 @@
         <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK46" t="n">
         <v>1</v>
       </c>
       <c r="AL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="3" t="inlineStr">
         <is>
@@ -6521,22 +6521,22 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1</v>
@@ -6551,13 +6551,13 @@
         <v>0</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>0</v>
@@ -6569,13 +6569,13 @@
         <v>0</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="2" t="n">
         <v>0</v>
@@ -6587,16 +6587,16 @@
         <v>1</v>
       </c>
       <c r="AA47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="2" t="n">
         <v>0</v>
@@ -6614,13 +6614,13 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="3" t="inlineStr">
         <is>
@@ -6648,22 +6648,22 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -6678,13 +6678,13 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -6696,13 +6696,13 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -6714,16 +6714,16 @@
         <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
         <v>0</v>
@@ -6741,13 +6741,13 @@
         <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK48" t="n">
         <v>1</v>
       </c>
       <c r="AL48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="3" t="inlineStr">
         <is>
@@ -6781,22 +6781,22 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>1</v>
@@ -6808,16 +6808,16 @@
         <v>0</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>0</v>
@@ -6829,16 +6829,16 @@
         <v>0</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="2" t="n">
         <v>0</v>
@@ -6847,16 +6847,16 @@
         <v>1</v>
       </c>
       <c r="AA49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2" t="n">
         <v>0</v>
@@ -6874,13 +6874,13 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="3" t="inlineStr">
         <is>
@@ -6905,25 +6905,25 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -6935,16 +6935,16 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -6956,16 +6956,16 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
         <v>0</v>
@@ -6974,16 +6974,16 @@
         <v>1</v>
       </c>
       <c r="AA50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" t="n">
         <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK50" t="n">
         <v>1</v>
@@ -7041,22 +7041,22 @@
         <v>1</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>1</v>
@@ -7068,16 +7068,16 @@
         <v>0</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="2" t="n">
         <v>0</v>
@@ -7086,19 +7086,19 @@
         <v>0</v>
       </c>
       <c r="T51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="2" t="n">
         <v>0</v>
@@ -7107,16 +7107,16 @@
         <v>1</v>
       </c>
       <c r="AA51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="2" t="n">
         <v>0</v>
@@ -7131,16 +7131,16 @@
         <v>0</v>
       </c>
       <c r="AI51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="3" t="inlineStr">
         <is>
@@ -7174,22 +7174,22 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>1</v>
@@ -7201,16 +7201,16 @@
         <v>0</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
@@ -7219,19 +7219,19 @@
         <v>0</v>
       </c>
       <c r="T52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="2" t="n">
         <v>0</v>
@@ -7240,16 +7240,16 @@
         <v>1</v>
       </c>
       <c r="AA52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="2" t="n">
         <v>0</v>
@@ -7264,16 +7264,16 @@
         <v>0</v>
       </c>
       <c r="AI52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="3" t="inlineStr">
         <is>
@@ -7307,22 +7307,22 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="n">
         <v>1</v>
@@ -7337,13 +7337,13 @@
         <v>1</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
@@ -7352,19 +7352,19 @@
         <v>0</v>
       </c>
       <c r="T53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="2" t="n">
         <v>0</v>
@@ -7376,13 +7376,13 @@
         <v>1</v>
       </c>
       <c r="AB53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="2" t="n">
         <v>0</v>
@@ -7397,16 +7397,16 @@
         <v>0</v>
       </c>
       <c r="AI53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="3" t="inlineStr">
         <is>
@@ -7440,22 +7440,22 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="n">
         <v>1</v>
@@ -7470,13 +7470,13 @@
         <v>1</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
@@ -7485,19 +7485,19 @@
         <v>0</v>
       </c>
       <c r="T54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="2" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         <v>1</v>
       </c>
       <c r="AB54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="2" t="n">
         <v>0</v>
@@ -7530,10 +7530,10 @@
         <v>0</v>
       </c>
       <c r="AI54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK54" s="2" t="n">
         <v>1</v>
@@ -7573,22 +7573,22 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="n">
         <v>1</v>
@@ -7597,19 +7597,19 @@
         <v>0</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="2" t="n">
         <v>0</v>
@@ -7618,19 +7618,19 @@
         <v>0</v>
       </c>
       <c r="T55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="2" t="n">
         <v>0</v>
@@ -7642,13 +7642,13 @@
         <v>1</v>
       </c>
       <c r="AB55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="2" t="n">
         <v>0</v>
@@ -7663,10 +7663,10 @@
         <v>0</v>
       </c>
       <c r="AI55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK55" s="2" t="n">
         <v>1</v>
@@ -7712,16 +7712,16 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7730,19 +7730,19 @@
         <v>0</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>0</v>
@@ -7751,19 +7751,19 @@
         <v>0</v>
       </c>
       <c r="T56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="2" t="n">
         <v>0</v>
@@ -7775,13 +7775,13 @@
         <v>1</v>
       </c>
       <c r="AB56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
         <v>0</v>
@@ -7796,10 +7796,10 @@
         <v>0</v>
       </c>
       <c r="AI56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK56" s="2" t="n">
         <v>1</v>
@@ -7845,16 +7845,16 @@
         <v>0</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="n">
         <v>1</v>
@@ -7863,19 +7863,19 @@
         <v>1</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="2" t="n">
         <v>0</v>
@@ -7884,19 +7884,19 @@
         <v>0</v>
       </c>
       <c r="T57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="2" t="n">
         <v>0</v>
@@ -7908,13 +7908,13 @@
         <v>1</v>
       </c>
       <c r="AB57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="2" t="n">
         <v>0</v>
@@ -7929,10 +7929,10 @@
         <v>0</v>
       </c>
       <c r="AI57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK57" s="2" t="n">
         <v>1</v>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -7996,13 +7996,13 @@
         <v>1</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2" t="n">
         <v>1</v>
@@ -8017,19 +8017,19 @@
         <v>0</v>
       </c>
       <c r="T58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="2" t="n">
         <v>0</v>
@@ -8041,13 +8041,13 @@
         <v>1</v>
       </c>
       <c r="AB58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
         <v>0</v>
@@ -8062,10 +8062,10 @@
         <v>0</v>
       </c>
       <c r="AI58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK58" s="2" t="n">
         <v>1</v>
@@ -8111,16 +8111,16 @@
         <v>0</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="n">
         <v>1</v>
@@ -8129,13 +8129,13 @@
         <v>2</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="2" t="n">
         <v>1</v>
@@ -8150,19 +8150,19 @@
         <v>0</v>
       </c>
       <c r="T59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="2" t="n">
         <v>0</v>
@@ -8174,13 +8174,13 @@
         <v>1</v>
       </c>
       <c r="AB59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="2" t="n">
         <v>0</v>
@@ -8195,10 +8195,10 @@
         <v>0</v>
       </c>
       <c r="AI59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK59" s="2" t="n">
         <v>1</v>
@@ -8244,16 +8244,16 @@
         <v>0</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="n">
         <v>1</v>
@@ -8262,19 +8262,19 @@
         <v>2</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
@@ -8283,19 +8283,19 @@
         <v>0</v>
       </c>
       <c r="T60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="2" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>1</v>
       </c>
       <c r="AB60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="2" t="n">
         <v>0</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AI60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK60" s="2" t="n">
         <v>1</v>
@@ -8377,16 +8377,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="n">
         <v>1</v>
@@ -8395,19 +8395,19 @@
         <v>3</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R61" s="2" t="n">
         <v>0</v>
@@ -8416,19 +8416,19 @@
         <v>0</v>
       </c>
       <c r="T61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="2" t="n">
         <v>0</v>
@@ -8440,13 +8440,13 @@
         <v>1</v>
       </c>
       <c r="AB61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="2" t="n">
         <v>0</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="AI61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ61" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK61" s="2" t="n">
         <v>1</v>
@@ -8510,16 +8510,16 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>1</v>
@@ -8528,19 +8528,19 @@
         <v>3</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R62" s="2" t="n">
         <v>0</v>
@@ -8549,19 +8549,19 @@
         <v>0</v>
       </c>
       <c r="T62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="2" t="n">
         <v>0</v>
@@ -8573,13 +8573,13 @@
         <v>1</v>
       </c>
       <c r="AB62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="2" t="n">
         <v>0</v>
@@ -8594,10 +8594,10 @@
         <v>0</v>
       </c>
       <c r="AI62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK62" s="2" t="n">
         <v>1</v>
@@ -8625,7 +8625,7 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -8634,19 +8634,19 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -8655,19 +8655,19 @@
         <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -8676,19 +8676,19 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="n">
         <v>0</v>
@@ -8700,31 +8700,31 @@
         <v>1</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG63" t="n">
         <v>2</v>
       </c>
       <c r="AH63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK63" t="n">
         <v>1</v>
@@ -8770,16 +8770,16 @@
         <v>0</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2" t="n">
         <v>1</v>
@@ -8788,19 +8788,19 @@
         <v>3</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R64" s="2" t="n">
         <v>0</v>
@@ -8809,19 +8809,19 @@
         <v>0</v>
       </c>
       <c r="T64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="2" t="n">
         <v>0</v>
@@ -8833,13 +8833,13 @@
         <v>1</v>
       </c>
       <c r="AB64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="2" t="n">
         <v>0</v>
@@ -8854,10 +8854,10 @@
         <v>0</v>
       </c>
       <c r="AI64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK64" s="2" t="n">
         <v>1</v>
@@ -8885,7 +8885,7 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -8894,19 +8894,19 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -8915,19 +8915,19 @@
         <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
         <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -8936,19 +8936,19 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="n">
         <v>0</v>
@@ -8960,31 +8960,31 @@
         <v>1</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE65" t="n">
         <v>0</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG65" t="n">
         <v>2</v>
       </c>
       <c r="AH65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK65" t="n">
         <v>1</v>
@@ -9030,16 +9030,16 @@
         <v>0</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2" t="n">
         <v>1</v>
@@ -9048,19 +9048,19 @@
         <v>3</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R66" s="2" t="n">
         <v>0</v>
@@ -9069,19 +9069,19 @@
         <v>0</v>
       </c>
       <c r="T66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="2" t="n">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>1</v>
       </c>
       <c r="AB66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="2" t="n">
         <v>0</v>
@@ -9114,16 +9114,16 @@
         <v>0</v>
       </c>
       <c r="AI66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM66" s="3" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -9154,19 +9154,19 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -9175,19 +9175,19 @@
         <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9196,19 +9196,19 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="n">
         <v>0</v>
@@ -9220,37 +9220,37 @@
         <v>1</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE67" t="n">
         <v>0</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG67" t="n">
         <v>2</v>
       </c>
       <c r="AH67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK67" t="n">
         <v>1</v>
       </c>
       <c r="AL67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM67" s="3" t="inlineStr">
         <is>
@@ -9284,22 +9284,22 @@
         <v>1</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2" t="n">
         <v>1</v>
@@ -9308,19 +9308,19 @@
         <v>3</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R68" s="2" t="n">
         <v>0</v>
@@ -9329,19 +9329,19 @@
         <v>0</v>
       </c>
       <c r="T68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="2" t="n">
         <v>0</v>
@@ -9353,13 +9353,13 @@
         <v>1</v>
       </c>
       <c r="AB68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="2" t="n">
         <v>0</v>
@@ -9374,16 +9374,16 @@
         <v>0</v>
       </c>
       <c r="AI68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ68" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK68" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM68" s="3" t="inlineStr">
         <is>
@@ -9405,28 +9405,28 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -9435,19 +9435,19 @@
         <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9456,19 +9456,19 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
         <v>0</v>
@@ -9480,37 +9480,37 @@
         <v>1</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
         <v>0</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG69" t="n">
         <v>2</v>
       </c>
       <c r="AH69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK69" t="n">
         <v>1</v>
       </c>
       <c r="AL69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM69" s="3" t="inlineStr">
         <is>
@@ -9544,22 +9544,22 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="2" t="n">
         <v>1</v>
@@ -9568,19 +9568,19 @@
         <v>3</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R70" s="2" t="n">
         <v>0</v>
@@ -9589,19 +9589,19 @@
         <v>0</v>
       </c>
       <c r="T70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="2" t="n">
         <v>0</v>
@@ -9613,13 +9613,13 @@
         <v>1</v>
       </c>
       <c r="AB70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE70" s="2" t="n">
         <v>0</v>
@@ -9634,16 +9634,16 @@
         <v>0</v>
       </c>
       <c r="AI70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ70" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK70" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL70" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM70" s="3" t="inlineStr">
         <is>
@@ -9665,28 +9665,28 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -9695,19 +9695,19 @@
         <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
         <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y71" t="n">
         <v>0</v>
@@ -9740,37 +9740,37 @@
         <v>1</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD71" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE71" t="n">
         <v>0</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG71" t="n">
         <v>2</v>
       </c>
       <c r="AH71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ71" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK71" t="n">
         <v>1</v>
       </c>
       <c r="AL71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM71" s="3" t="inlineStr">
         <is>
@@ -9804,22 +9804,22 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="2" t="n">
         <v>1</v>
@@ -9828,19 +9828,19 @@
         <v>3</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R72" s="2" t="n">
         <v>0</v>
@@ -9849,19 +9849,19 @@
         <v>0</v>
       </c>
       <c r="T72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="2" t="n">
         <v>0</v>
@@ -9873,13 +9873,13 @@
         <v>1</v>
       </c>
       <c r="AB72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="2" t="n">
         <v>0</v>
@@ -9894,16 +9894,16 @@
         <v>0</v>
       </c>
       <c r="AI72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ72" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK72" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL72" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM72" s="3" t="inlineStr">
         <is>
@@ -9925,28 +9925,28 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -9955,19 +9955,19 @@
         <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
         <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -9976,19 +9976,19 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
         <v>0</v>
@@ -10000,37 +10000,37 @@
         <v>1</v>
       </c>
       <c r="AB73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
         <v>0</v>
       </c>
       <c r="AF73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG73" t="n">
         <v>2</v>
       </c>
       <c r="AH73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ73" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK73" t="n">
         <v>1</v>
       </c>
       <c r="AL73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM73" s="3" t="inlineStr">
         <is>
@@ -10064,22 +10064,22 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="2" t="n">
         <v>1</v>
@@ -10088,19 +10088,19 @@
         <v>3</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R74" s="2" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="T74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="2" t="n">
         <v>0</v>
@@ -10133,13 +10133,13 @@
         <v>1</v>
       </c>
       <c r="AB74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD74" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE74" s="2" t="n">
         <v>0</v>
@@ -10154,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="AI74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ74" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL74" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM74" s="3" t="inlineStr">
         <is>
@@ -10185,28 +10185,28 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
@@ -10215,19 +10215,19 @@
         <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
         <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10236,19 +10236,19 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75" t="n">
         <v>0</v>
@@ -10260,37 +10260,37 @@
         <v>1</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE75" t="n">
         <v>0</v>
       </c>
       <c r="AF75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG75" t="n">
         <v>2</v>
       </c>
       <c r="AH75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ75" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK75" t="n">
         <v>1</v>
       </c>
       <c r="AL75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM75" s="3" t="inlineStr">
         <is>
@@ -10324,22 +10324,22 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="2" t="n">
         <v>1</v>
@@ -10348,37 +10348,37 @@
         <v>3</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R76" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X76" s="2" t="n">
         <v>1</v>
@@ -10393,13 +10393,13 @@
         <v>1</v>
       </c>
       <c r="AB76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD76" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="2" t="n">
         <v>0</v>
@@ -10414,16 +10414,16 @@
         <v>0</v>
       </c>
       <c r="AI76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ76" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK76" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL76" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM76" s="3" t="inlineStr">
         <is>
@@ -10445,67 +10445,67 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
+        <v>7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
         <v>3</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4</v>
-      </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
         <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X77" t="n">
         <v>1</v>
@@ -10520,19 +10520,19 @@
         <v>1</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG77" t="n">
         <v>2</v>
@@ -10541,16 +10541,16 @@
         <v>0</v>
       </c>
       <c r="AI77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK77" t="n">
         <v>1</v>
       </c>
       <c r="AL77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM77" s="3" t="inlineStr">
         <is>
@@ -10584,22 +10584,22 @@
         <v>1</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="2" t="n">
         <v>1</v>
@@ -10608,7 +10608,7 @@
         <v>3</v>
       </c>
       <c r="M78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" s="2" t="n">
         <v>1</v>
@@ -10617,28 +10617,28 @@
         <v>1</v>
       </c>
       <c r="P78" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q78" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R78" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X78" s="2" t="n">
         <v>1</v>
@@ -10653,13 +10653,13 @@
         <v>1</v>
       </c>
       <c r="AB78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD78" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="2" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="AI78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ78" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK78" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL78" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM78" s="3" t="inlineStr">
         <is>
@@ -10711,22 +10711,22 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -10735,7 +10735,7 @@
         <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
         <v>1</v>
@@ -10744,28 +10744,28 @@
         <v>1</v>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X79" t="n">
         <v>1</v>
@@ -10780,46 +10780,46 @@
         <v>1</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD79" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG79" t="n">
         <v>2</v>
       </c>
       <c r="AH79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK79" t="n">
         <v>1</v>
       </c>
       <c r="AL79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM79" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN79" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="AN79" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10844,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>0</v>
@@ -10853,13 +10853,13 @@
         <v>1</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J80" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="2" t="n">
         <v>1</v>
@@ -10868,7 +10868,7 @@
         <v>3</v>
       </c>
       <c r="M80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" s="2" t="n">
         <v>1</v>
@@ -10877,34 +10877,34 @@
         <v>1</v>
       </c>
       <c r="P80" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q80" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R80" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S80" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V80" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X80" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Y80" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z80" s="2" t="n">
         <v>1</v>
@@ -10913,13 +10913,13 @@
         <v>1</v>
       </c>
       <c r="AB80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD80" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="2" t="n">
         <v>0</v>
@@ -10934,16 +10934,16 @@
         <v>0</v>
       </c>
       <c r="AI80" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ80" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK80" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL80" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM80" s="3" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -10995,7 +10995,7 @@
         <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
         <v>1</v>
@@ -11004,34 +11004,34 @@
         <v>1</v>
       </c>
       <c r="P81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X81" t="n">
         <v>1</v>
       </c>
       <c r="Y81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z81" t="n">
         <v>1</v>
@@ -11040,13 +11040,13 @@
         <v>1</v>
       </c>
       <c r="AB81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD81" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE81" t="n">
         <v>1</v>
@@ -11058,19 +11058,19 @@
         <v>2</v>
       </c>
       <c r="AH81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ81" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK81" t="n">
         <v>1</v>
       </c>
       <c r="AL81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM81" s="3" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>0</v>
@@ -11113,13 +11113,13 @@
         <v>1</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J82" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="2" t="n">
         <v>1</v>
@@ -11128,7 +11128,7 @@
         <v>3</v>
       </c>
       <c r="M82" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" s="2" t="n">
         <v>1</v>
@@ -11137,34 +11137,34 @@
         <v>1</v>
       </c>
       <c r="P82" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q82" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R82" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T82" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V82" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X82" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Y82" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z82" s="2" t="n">
         <v>1</v>
@@ -11173,13 +11173,13 @@
         <v>1</v>
       </c>
       <c r="AB82" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD82" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE82" s="2" t="n">
         <v>0</v>
@@ -11194,16 +11194,16 @@
         <v>0</v>
       </c>
       <c r="AI82" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ82" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK82" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL82" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM82" s="3" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -11240,13 +11240,13 @@
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
@@ -11264,34 +11264,34 @@
         <v>1</v>
       </c>
       <c r="P83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X83" t="n">
         <v>1</v>
       </c>
       <c r="Y83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z83" t="n">
         <v>1</v>
@@ -11300,13 +11300,13 @@
         <v>1</v>
       </c>
       <c r="AB83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC83" t="n">
         <v>1</v>
       </c>
       <c r="AD83" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE83" t="n">
         <v>1</v>
@@ -11318,19 +11318,19 @@
         <v>2</v>
       </c>
       <c r="AH83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ83" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK83" t="n">
         <v>1</v>
       </c>
       <c r="AL83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM83" s="3" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>1</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J84" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="2" t="n">
         <v>1</v>
@@ -11388,7 +11388,7 @@
         <v>3</v>
       </c>
       <c r="M84" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" s="2" t="n">
         <v>1</v>
@@ -11397,34 +11397,34 @@
         <v>1</v>
       </c>
       <c r="P84" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q84" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R84" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S84" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V84" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X84" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Y84" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z84" s="2" t="n">
         <v>1</v>
@@ -11433,13 +11433,13 @@
         <v>1</v>
       </c>
       <c r="AB84" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD84" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE84" s="2" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="AI84" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ84" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK84" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL84" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM84" s="3" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -11500,13 +11500,13 @@
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
         <v>1</v>
@@ -11524,34 +11524,34 @@
         <v>1</v>
       </c>
       <c r="P85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X85" t="n">
         <v>1</v>
       </c>
       <c r="Y85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z85" t="n">
         <v>1</v>
@@ -11560,13 +11560,13 @@
         <v>1</v>
       </c>
       <c r="AB85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85" t="n">
         <v>1</v>
       </c>
       <c r="AD85" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE85" t="n">
         <v>1</v>
@@ -11578,19 +11578,19 @@
         <v>2</v>
       </c>
       <c r="AH85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ85" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK85" t="n">
         <v>1</v>
       </c>
       <c r="AL85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM85" s="3" t="inlineStr">
         <is>
